--- a/template Excel/HR/RecruitmentChannel.xlsx
+++ b/template Excel/HR/RecruitmentChannel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EB521-6B2D-4AE6-886A-D1DC85ACE4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F632FD-8C52-4604-B4E4-B1D3D98F31BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{37A00B78-D60A-404D-BB19-5E73E0DC99FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{37A00B78-D60A-404D-BB19-5E73E0DC99FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/template Excel/HR/RecruitmentChannel.xlsx
+++ b/template Excel/HR/RecruitmentChannel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F632FD-8C52-4604-B4E4-B1D3D98F31BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9E4D52-B65C-4741-9AAF-964C9B1E041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{37A00B78-D60A-404D-BB19-5E73E0DC99FB}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{37A00B78-D60A-404D-BB19-5E73E0DC99FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I4" activeCellId="1" sqref="D4 I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>5000000</v>
       </c>
       <c r="D2" s="2">
-        <v>45515</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>6000000</v>
       </c>
       <c r="D3" s="2">
-        <v>45509</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>45323</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>45505</v>
+        <v>44927</v>
       </c>
     </row>
   </sheetData>
